--- a/Excel/Sandwich.xlsx
+++ b/Excel/Sandwich.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Excel_to_text\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Nettside_webtek_28\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780435D-B7A1-4FF1-A878-DBCFC5DA62E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71A07D-A336-47E0-8FAE-DE9249259619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1764" windowWidth="17280" windowHeight="8964" xr2:uid="{4CBF58CD-C947-4DA7-948F-22BD84B3986C}"/>
+    <workbookView xWindow="1248" yWindow="264" windowWidth="16968" windowHeight="11832" xr2:uid="{4CBF58CD-C947-4DA7-948F-22BD84B3986C}"/>
   </bookViews>
   <sheets>
     <sheet name="Smørbrød" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>Karbonade m/ løk</t>
   </si>
   <si>
-    <t>Havrebrød, håndstekt karbonade med stekt løk, salat, agurk, tomat, sylteagurk og svisker. 1,2,8,10</t>
-  </si>
-  <si>
     <t>Seilerpatent</t>
   </si>
   <si>
-    <t>Håndstekt karbonade m/ speilegg. Havrebrød, salat, tomat og agurk. 1,2,3,8,10</t>
+    <t>Handsteikt karbonade m/ speilegg. Havrebrød, salat, tomat og agurk. 1,2,3,8,10</t>
+  </si>
+  <si>
+    <t>Havrebrød, handsteikt karbonade med steikt lauk, salat, agurk, tomat, sylteagurk og svisker. 1,2,8,10</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,18 +457,18 @@
         <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Sandwich.xlsx
+++ b/Excel/Sandwich.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Nettside_webtek_28\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\signe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71A07D-A336-47E0-8FAE-DE9249259619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F4CAB3-964A-41E1-9E1E-F64D35025FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="264" windowWidth="16968" windowHeight="11832" xr2:uid="{4CBF58CD-C947-4DA7-948F-22BD84B3986C}"/>
+    <workbookView xWindow="1416" yWindow="1728" windowWidth="21624" windowHeight="12672" xr2:uid="{4CBF58CD-C947-4DA7-948F-22BD84B3986C}"/>
   </bookViews>
   <sheets>
     <sheet name="Smørbrød" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Havrebrød, majones, salat, agurk, tomat og sitron. 1,2,3,5,8,10</t>
   </si>
   <si>
-    <t>Karbonade m/ løk</t>
-  </si>
-  <si>
     <t>Seilerpatent</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Havrebrød, handsteikt karbonade med steikt lauk, salat, agurk, tomat, sylteagurk og svisker. 1,2,8,10</t>
+  </si>
+  <si>
+    <t>Karbonade m/ lauk</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,10 +417,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.21875" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
@@ -451,24 +451,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
